--- a/grupos/4APV - Estadisticos 20202.xlsx
+++ b/grupos/4APV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="170">
   <si>
     <t>Materia</t>
   </si>
@@ -209,19 +209,19 @@
     <t>Polanco Domínguez Rosa María</t>
   </si>
   <si>
+    <t>González Nuñez Veronica</t>
+  </si>
+  <si>
+    <t>Sánchez Sánchez Miguel</t>
+  </si>
+  <si>
+    <t>Pesce Bautista Victor Manuel</t>
+  </si>
+  <si>
+    <t>Acevedo Rendón Ismael Arturo</t>
+  </si>
+  <si>
     <t>Muñoz Rivadeneyra Salvador</t>
-  </si>
-  <si>
-    <t>González Nuñez Veronica</t>
-  </si>
-  <si>
-    <t>Sánchez Sánchez Miguel</t>
-  </si>
-  <si>
-    <t>Pesce Bautista Victor Manuel</t>
-  </si>
-  <si>
-    <t>Acevedo Rendón Ismael Arturo</t>
   </si>
   <si>
     <t>NC</t>
@@ -1124,7 +1124,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1145,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -1166,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R5">
         <v>7</v>
@@ -1187,7 +1187,7 @@
         <v>6</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y5">
         <v>6</v>
@@ -1302,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1344,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R7">
         <v>7</v>
@@ -1365,7 +1365,7 @@
         <v>6</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y7">
         <v>7</v>
@@ -1569,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1590,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -1611,7 +1611,7 @@
         <v>7</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R10">
         <v>6</v>
@@ -1632,7 +1632,7 @@
         <v>6</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y10">
         <v>6</v>
@@ -2192,7 +2192,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -2213,7 +2213,7 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2234,7 +2234,7 @@
         <v>7</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>8</v>
@@ -2255,7 +2255,7 @@
         <v>6</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y17">
         <v>6</v>
@@ -2281,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2302,7 +2302,7 @@
         <v>5</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -2323,7 +2323,7 @@
         <v>7</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>8</v>
@@ -2344,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y18">
         <v>6</v>
@@ -2726,7 +2726,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -2747,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K23">
         <v>6</v>
@@ -2768,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R23">
         <v>6</v>
@@ -2789,7 +2789,7 @@
         <v>7</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y23">
         <v>6</v>
@@ -2904,7 +2904,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -2925,7 +2925,7 @@
         <v>6</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K25">
         <v>6</v>
@@ -2946,7 +2946,7 @@
         <v>7</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R25">
         <v>7</v>
@@ -2967,7 +2967,7 @@
         <v>6</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y25">
         <v>6</v>
@@ -2993,7 +2993,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -3014,7 +3014,7 @@
         <v>5</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K26">
         <v>6</v>
@@ -3035,7 +3035,7 @@
         <v>7</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R26">
         <v>6</v>
@@ -3056,7 +3056,7 @@
         <v>6</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y26">
         <v>6</v>
@@ -3082,13 +3082,13 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F27">
         <v>-1</v>
@@ -3103,13 +3103,13 @@
         <v>5</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K27">
         <v>6</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M27">
         <v>-1</v>
@@ -3124,13 +3124,13 @@
         <v>7</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R27">
         <v>7</v>
       </c>
       <c r="S27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T27">
         <v>-1</v>
@@ -3145,13 +3145,13 @@
         <v>6</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y27">
         <v>6</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -3171,13 +3171,13 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>-1</v>
@@ -3192,13 +3192,13 @@
         <v>6</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K28">
         <v>6</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M28">
         <v>-1</v>
@@ -3213,13 +3213,13 @@
         <v>7</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R28">
         <v>7</v>
       </c>
       <c r="S28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T28">
         <v>-1</v>
@@ -3234,13 +3234,13 @@
         <v>6</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y28">
         <v>6</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -3349,13 +3349,13 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>-1</v>
@@ -3370,13 +3370,13 @@
         <v>6</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K30">
         <v>8</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M30">
         <v>-1</v>
@@ -3391,13 +3391,13 @@
         <v>7</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R30">
         <v>7</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T30">
         <v>-1</v>
@@ -3412,13 +3412,13 @@
         <v>6</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y30">
         <v>8</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA30">
         <v>-1</v>
@@ -3794,7 +3794,7 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -3815,7 +3815,7 @@
         <v>5</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K35">
         <v>6</v>
@@ -3836,7 +3836,7 @@
         <v>7</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R35">
         <v>7</v>
@@ -3857,7 +3857,7 @@
         <v>6</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y35">
         <v>6</v>
@@ -3883,7 +3883,7 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -3904,7 +3904,7 @@
         <v>6</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K36">
         <v>8</v>
@@ -3925,7 +3925,7 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R36">
         <v>7</v>
@@ -3946,7 +3946,7 @@
         <v>6</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y36">
         <v>7</v>
@@ -4061,13 +4061,13 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>5</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F38">
         <v>-1</v>
@@ -4082,13 +4082,13 @@
         <v>5</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K38">
         <v>6</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M38">
         <v>-1</v>
@@ -4103,13 +4103,13 @@
         <v>7</v>
       </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R38">
         <v>7</v>
       </c>
       <c r="S38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T38">
         <v>-1</v>
@@ -4124,13 +4124,13 @@
         <v>6</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y38">
         <v>6</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -4150,7 +4150,7 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -4171,7 +4171,7 @@
         <v>5</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K39">
         <v>6</v>
@@ -4192,7 +4192,7 @@
         <v>7</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R39">
         <v>6</v>
@@ -4213,7 +4213,7 @@
         <v>6</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y39">
         <v>6</v>
@@ -4239,7 +4239,7 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>8</v>
@@ -4260,7 +4260,7 @@
         <v>6</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K40">
         <v>8</v>
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R40">
         <v>8</v>
@@ -4302,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y40">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>7</v>
@@ -4349,7 +4349,7 @@
         <v>6</v>
       </c>
       <c r="J41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K41">
         <v>8</v>
@@ -4370,7 +4370,7 @@
         <v>7</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R41">
         <v>7</v>
@@ -4391,7 +4391,7 @@
         <v>7</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y41">
         <v>7</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -4579,62 +4579,62 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>55.26</v>
+        <v>57.89</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>26.32</v>
       </c>
       <c r="H4">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4">
-        <v>44.74</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>57.89</v>
+        <v>69.23</v>
       </c>
       <c r="G5">
-        <v>26.32</v>
+        <v>30.77</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>42.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -4643,19 +4643,19 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>69.23</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="G6">
-        <v>30.77</v>
+        <v>20.51</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -4675,57 +4675,57 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>79.48999999999999</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="G7">
-        <v>20.51</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>7.5</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>79.48999999999999</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>20.51</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4735,7 +4735,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4779,7 +4779,7 @@
         <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>63</v>
@@ -4799,10 +4799,10 @@
         <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4819,30 +4819,30 @@
         <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920308</v>
+        <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4859,24 +4859,24 @@
         <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920311</v>
+        <v>19330051920450</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -4887,22 +4887,22 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920311</v>
+        <v>19330051920450</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4919,10 +4919,10 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4947,59 +4947,59 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920450</v>
+        <v>19330051920441</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920450</v>
+        <v>19330051920327</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920450</v>
+        <v>19330051920327</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
@@ -5007,16 +5007,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920441</v>
+        <v>19330051920327</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -5039,15 +5039,15 @@
         <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920327</v>
+        <v>19330051920453</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -5056,18 +5056,18 @@
         <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920327</v>
+        <v>19330051920453</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -5076,18 +5076,18 @@
         <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920327</v>
+        <v>19330051920453</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -5096,7 +5096,7 @@
         <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920327</v>
+        <v>19330051920453</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -5116,127 +5116,127 @@
         <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920453</v>
+        <v>19330051920321</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920453</v>
+        <v>19330051920321</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920453</v>
+        <v>19330051920332</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920453</v>
+        <v>19330051920332</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920453</v>
+        <v>19330051920334</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920321</v>
+        <v>19330051920334</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -5247,16 +5247,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920321</v>
+        <v>19330051920334</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -5267,596 +5267,596 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920332</v>
+        <v>19330051920338</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920332</v>
+        <v>19330051920338</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920334</v>
+        <v>19330051920338</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920334</v>
+        <v>19330051920339</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920334</v>
+        <v>19330051920339</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920334</v>
+        <v>19330051920339</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920338</v>
+        <v>19330051920339</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920338</v>
+        <v>19330051920340</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920338</v>
+        <v>19330051920340</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920338</v>
+        <v>19330051920340</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920339</v>
+        <v>19330051920445</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920339</v>
+        <v>19330051920445</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920339</v>
+        <v>19330051920445</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920339</v>
+        <v>19330051920342</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920339</v>
+        <v>19330051920342</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920340</v>
+        <v>19330051920342</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920340</v>
+        <v>19330051920347</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920340</v>
+        <v>19330051920347</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920340</v>
+        <v>19330051920347</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920340</v>
+        <v>19330051920440</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920445</v>
+        <v>19330051920350</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920445</v>
+        <v>19330051920350</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920445</v>
+        <v>19330051920350</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920445</v>
+        <v>19330051920352</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920445</v>
+        <v>19330051920352</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920342</v>
+        <v>19330051920352</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920342</v>
+        <v>19330051920354</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920342</v>
+        <v>19330051920354</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920342</v>
+        <v>19330051920354</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920342</v>
+        <v>19330051920353</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -5867,482 +5867,62 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920347</v>
+        <v>19330051920353</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920347</v>
+        <v>19330051920353</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920347</v>
+        <v>19330051920355</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>19330051920347</v>
-      </c>
-      <c r="B60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>19330051920440</v>
-      </c>
-      <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" t="s">
-        <v>121</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>19330051920350</v>
-      </c>
-      <c r="B62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>19330051920350</v>
-      </c>
-      <c r="B63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" t="s">
-        <v>122</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>19330051920350</v>
-      </c>
-      <c r="B64" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" t="s">
-        <v>122</v>
-      </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>19330051920350</v>
-      </c>
-      <c r="B65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" t="s">
-        <v>122</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>19330051920352</v>
-      </c>
-      <c r="B66" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" t="s">
-        <v>103</v>
-      </c>
-      <c r="D66" t="s">
-        <v>123</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>19330051920352</v>
-      </c>
-      <c r="B67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" t="s">
-        <v>123</v>
-      </c>
-      <c r="E67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>19330051920352</v>
-      </c>
-      <c r="B68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19330051920352</v>
-      </c>
-      <c r="B69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920352</v>
-      </c>
-      <c r="B70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" t="s">
-        <v>123</v>
-      </c>
-      <c r="E70" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920354</v>
-      </c>
-      <c r="B71" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" t="s">
-        <v>104</v>
-      </c>
-      <c r="D71" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920354</v>
-      </c>
-      <c r="B72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920354</v>
-      </c>
-      <c r="B73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" t="s">
-        <v>124</v>
-      </c>
-      <c r="E73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920354</v>
-      </c>
-      <c r="B74" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" t="s">
-        <v>124</v>
-      </c>
-      <c r="E74" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920353</v>
-      </c>
-      <c r="B75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" t="s">
-        <v>125</v>
-      </c>
-      <c r="E75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920353</v>
-      </c>
-      <c r="B76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" t="s">
-        <v>125</v>
-      </c>
-      <c r="E76" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920353</v>
-      </c>
-      <c r="B77" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" t="s">
-        <v>105</v>
-      </c>
-      <c r="D77" t="s">
-        <v>125</v>
-      </c>
-      <c r="E77" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920353</v>
-      </c>
-      <c r="B78" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" t="s">
-        <v>105</v>
-      </c>
-      <c r="D78" t="s">
-        <v>125</v>
-      </c>
-      <c r="E78" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920355</v>
-      </c>
-      <c r="B79" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" t="s">
-        <v>126</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920355</v>
-      </c>
-      <c r="B80" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" t="s">
-        <v>89</v>
-      </c>
-      <c r="D80" t="s">
-        <v>126</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -6393,7 +5973,7 @@
         <v>108</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6410,7 +5990,7 @@
         <v>110</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6427,7 +6007,7 @@
         <v>111</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6444,160 +6024,160 @@
         <v>116</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920340</v>
+        <v>19330051920308</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920445</v>
+        <v>19330051920334</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920342</v>
+        <v>19330051920338</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920352</v>
+        <v>19330051920340</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920308</v>
+        <v>19330051920445</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920334</v>
+        <v>19330051920342</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920338</v>
+        <v>19330051920347</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920347</v>
+        <v>19330051920350</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920350</v>
+        <v>19330051920352</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6614,7 +6194,7 @@
         <v>124</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6631,7 +6211,7 @@
         <v>125</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6648,7 +6228,7 @@
         <v>107</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6687,33 +6267,33 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920355</v>
+        <v>19330051920441</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920441</v>
+        <v>19330051920440</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -6721,16 +6301,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920440</v>
+        <v>19330051920355</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -7049,7 +6629,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7130,22 +6710,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920355</v>
+        <v>19330051920441</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -7153,16 +6733,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920355</v>
+        <v>19330051920440</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -7176,22 +6756,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920441</v>
+        <v>19330051920355</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -7199,47 +6779,24 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920440</v>
+        <v>17330051920076</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>17330051920076</v>
-      </c>
-      <c r="B8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8">
         <v>5</v>
       </c>
     </row>

--- a/grupos/4APV - Estadisticos 20202.xlsx
+++ b/grupos/4APV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="170">
   <si>
     <t>Materia</t>
   </si>
@@ -203,24 +203,24 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
+    <t>González Nuñez Veronica</t>
+  </si>
+  <si>
+    <t>Sánchez Sánchez Miguel</t>
+  </si>
+  <si>
+    <t>Pesce Bautista Victor Manuel</t>
+  </si>
+  <si>
+    <t>Acevedo Rendón Ismael Arturo</t>
+  </si>
+  <si>
     <t>Vargas Olvera Francisco Eduardo</t>
   </si>
   <si>
-    <t>Polanco Domínguez Rosa María</t>
-  </si>
-  <si>
-    <t>González Nuñez Veronica</t>
-  </si>
-  <si>
-    <t>Sánchez Sánchez Miguel</t>
-  </si>
-  <si>
-    <t>Pesce Bautista Victor Manuel</t>
-  </si>
-  <si>
-    <t>Acevedo Rendón Ismael Arturo</t>
-  </si>
-  <si>
     <t>Muñoz Rivadeneyra Salvador</t>
   </si>
   <si>
@@ -278,27 +278,27 @@
     <t>SANDOVAL</t>
   </si>
   <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>XOLIO</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>ARENAS</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>XOLIO</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>ARENAS</t>
-  </si>
-  <si>
     <t>ANTONIO</t>
   </si>
   <si>
@@ -383,148 +383,148 @@
     <t>JESUS ARMANDO</t>
   </si>
   <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>ADAN</t>
+  </si>
+  <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>HERSON ELIAS</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>ARRIETA</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MANUEL</t>
+  </si>
+  <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
+    <t>PATIÑO</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>NAVA</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>AULIS</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
+    <t>TZOPITL</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>JESUS ALBERTO</t>
+  </si>
+  <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
+    <t>GIOVANNI</t>
+  </si>
+  <si>
+    <t>SAUL ESTEBAN</t>
+  </si>
+  <si>
+    <t>ALDO</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>RUBEN</t>
+  </si>
+  <si>
+    <t>LUZ ABRIL</t>
+  </si>
+  <si>
+    <t>VICTOR YAHIR</t>
+  </si>
+  <si>
+    <t>CRISTOPHER ENRIQUE</t>
+  </si>
+  <si>
+    <t>CARLOS FERNANDO</t>
+  </si>
+  <si>
     <t>CIELO IVETTE</t>
   </si>
   <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>ADAN</t>
-  </si>
-  <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
-    <t>HERSON ELIAS</t>
+    <t>GWINETH</t>
+  </si>
+  <si>
+    <t>YOSEF OMAR</t>
   </si>
   <si>
     <t>JOEL</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>ARRIETA</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MANUEL</t>
-  </si>
-  <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>PATIÑO</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>NAVA</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>AULIS</t>
-  </si>
-  <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>GALLARDO</t>
-  </si>
-  <si>
-    <t>TZOPITL</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>JESUS ALBERTO</t>
-  </si>
-  <si>
-    <t>KEVIN HONAM</t>
-  </si>
-  <si>
-    <t>GIOVANNI</t>
-  </si>
-  <si>
-    <t>SAUL ESTEBAN</t>
-  </si>
-  <si>
-    <t>ALDO</t>
-  </si>
-  <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>RUBEN</t>
-  </si>
-  <si>
-    <t>LUZ ABRIL</t>
-  </si>
-  <si>
-    <t>VICTOR YAHIR</t>
-  </si>
-  <si>
-    <t>CRISTOPHER ENRIQUE</t>
-  </si>
-  <si>
-    <t>CARLOS FERNANDO</t>
-  </si>
-  <si>
-    <t>GWINETH</t>
-  </si>
-  <si>
-    <t>YOSEF OMAR</t>
   </si>
   <si>
     <t>MARITZA</t>
@@ -1086,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U4">
         <v>7</v>
@@ -1133,7 +1133,7 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -1154,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -1175,7 +1175,7 @@
         <v>6</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U5">
         <v>-1</v>
@@ -1196,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB5">
         <v>-1</v>
@@ -1264,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U6">
         <v>10</v>
@@ -1332,7 +1332,7 @@
         <v>6</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1353,7 +1353,7 @@
         <v>6</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U7">
         <v>-1</v>
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <v>7</v>
@@ -1531,7 +1531,7 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U9">
         <v>7</v>
@@ -1575,10 +1575,10 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -1596,10 +1596,10 @@
         <v>6</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1617,10 +1617,10 @@
         <v>6</v>
       </c>
       <c r="S10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U10">
         <v>-1</v>
@@ -1638,10 +1638,10 @@
         <v>6</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB10">
         <v>-1</v>
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U11">
         <v>8</v>
@@ -1798,7 +1798,7 @@
         <v>9</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U12">
         <v>10</v>
@@ -1845,7 +1845,7 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -1866,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1887,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U13">
         <v>-1</v>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -1976,7 +1976,7 @@
         <v>6</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U14">
         <v>-1</v>
@@ -2065,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U15">
         <v>-1</v>
@@ -2154,7 +2154,7 @@
         <v>9</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U16">
         <v>6</v>
@@ -2198,10 +2198,10 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -2219,10 +2219,10 @@
         <v>5</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -2240,10 +2240,10 @@
         <v>8</v>
       </c>
       <c r="S17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U17">
         <v>-1</v>
@@ -2261,10 +2261,10 @@
         <v>6</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -2287,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -2308,10 +2308,10 @@
         <v>5</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -2329,10 +2329,10 @@
         <v>8</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U18">
         <v>-1</v>
@@ -2350,10 +2350,10 @@
         <v>6</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB18">
         <v>-1</v>
@@ -2421,7 +2421,7 @@
         <v>6</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U19">
         <v>8</v>
@@ -2442,7 +2442,7 @@
         <v>7</v>
       </c>
       <c r="AA19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB19">
         <v>7</v>
@@ -2510,7 +2510,7 @@
         <v>10</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U20">
         <v>10</v>
@@ -2578,7 +2578,7 @@
         <v>6</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>7</v>
@@ -2599,7 +2599,7 @@
         <v>6</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U21">
         <v>7</v>
@@ -2620,7 +2620,7 @@
         <v>6</v>
       </c>
       <c r="AA21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB21">
         <v>7</v>
@@ -2688,7 +2688,7 @@
         <v>10</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U22">
         <v>9</v>
@@ -2735,7 +2735,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -2756,7 +2756,7 @@
         <v>6</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2777,7 +2777,7 @@
         <v>6</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U23">
         <v>-1</v>
@@ -2798,7 +2798,7 @@
         <v>6</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB23">
         <v>-1</v>
@@ -2866,7 +2866,7 @@
         <v>8</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U24">
         <v>6</v>
@@ -2887,7 +2887,7 @@
         <v>9</v>
       </c>
       <c r="AA24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB24">
         <v>6</v>
@@ -2913,7 +2913,7 @@
         <v>6</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G25">
         <v>9</v>
@@ -2934,7 +2934,7 @@
         <v>6</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2955,7 +2955,7 @@
         <v>6</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U25">
         <v>-1</v>
@@ -2976,7 +2976,7 @@
         <v>6</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB25">
         <v>9</v>
@@ -2999,10 +2999,10 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -3020,10 +3020,10 @@
         <v>6</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -3041,10 +3041,10 @@
         <v>6</v>
       </c>
       <c r="S26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U26">
         <v>-1</v>
@@ -3062,10 +3062,10 @@
         <v>6</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB26">
         <v>-1</v>
@@ -3091,7 +3091,7 @@
         <v>6</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -3112,7 +3112,7 @@
         <v>6</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -3133,7 +3133,7 @@
         <v>6</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U27">
         <v>-1</v>
@@ -3154,7 +3154,7 @@
         <v>6</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -3180,7 +3180,7 @@
         <v>6</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -3201,7 +3201,7 @@
         <v>6</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -3222,7 +3222,7 @@
         <v>6</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U28">
         <v>-1</v>
@@ -3243,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AB28">
         <v>-1</v>
@@ -3311,7 +3311,7 @@
         <v>10</v>
       </c>
       <c r="T29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U29">
         <v>8</v>
@@ -3358,7 +3358,7 @@
         <v>6</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G30">
         <v>-1</v>
@@ -3379,7 +3379,7 @@
         <v>6</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -3400,7 +3400,7 @@
         <v>6</v>
       </c>
       <c r="T30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U30">
         <v>-1</v>
@@ -3421,7 +3421,7 @@
         <v>6</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB30">
         <v>-1</v>
@@ -3489,7 +3489,7 @@
         <v>10</v>
       </c>
       <c r="T31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U31">
         <v>6</v>
@@ -3536,7 +3536,7 @@
         <v>6</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -3557,7 +3557,7 @@
         <v>7</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N32">
         <v>7</v>
@@ -3578,7 +3578,7 @@
         <v>6</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U32">
         <v>7</v>
@@ -3599,7 +3599,7 @@
         <v>6</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AB32">
         <v>7</v>
@@ -3667,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U33">
         <v>-1</v>
@@ -3756,7 +3756,7 @@
         <v>10</v>
       </c>
       <c r="T34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U34">
         <v>10</v>
@@ -3803,7 +3803,7 @@
         <v>6</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G35">
         <v>-1</v>
@@ -3824,7 +3824,7 @@
         <v>6</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -3845,7 +3845,7 @@
         <v>6</v>
       </c>
       <c r="T35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U35">
         <v>-1</v>
@@ -3866,7 +3866,7 @@
         <v>6</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -3892,7 +3892,7 @@
         <v>7</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G36">
         <v>-1</v>
@@ -3913,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -3934,7 +3934,7 @@
         <v>6</v>
       </c>
       <c r="T36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U36">
         <v>-1</v>
@@ -3955,7 +3955,7 @@
         <v>6</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -4023,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="T37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U37">
         <v>6</v>
@@ -4044,7 +4044,7 @@
         <v>9</v>
       </c>
       <c r="AA37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB37">
         <v>6</v>
@@ -4070,7 +4070,7 @@
         <v>6</v>
       </c>
       <c r="F38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G38">
         <v>-1</v>
@@ -4091,7 +4091,7 @@
         <v>6</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N38">
         <v>-1</v>
@@ -4112,7 +4112,7 @@
         <v>6</v>
       </c>
       <c r="T38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U38">
         <v>-1</v>
@@ -4133,7 +4133,7 @@
         <v>6</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB38">
         <v>-1</v>
@@ -4159,7 +4159,7 @@
         <v>6</v>
       </c>
       <c r="F39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G39">
         <v>6</v>
@@ -4180,7 +4180,7 @@
         <v>6</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N39">
         <v>-1</v>
@@ -4201,7 +4201,7 @@
         <v>6</v>
       </c>
       <c r="T39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U39">
         <v>-1</v>
@@ -4222,7 +4222,7 @@
         <v>6</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AB39">
         <v>6</v>
@@ -4269,7 +4269,7 @@
         <v>6</v>
       </c>
       <c r="M40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N40">
         <v>-1</v>
@@ -4290,7 +4290,7 @@
         <v>6</v>
       </c>
       <c r="T40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U40">
         <v>-1</v>
@@ -4358,7 +4358,7 @@
         <v>6</v>
       </c>
       <c r="M41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N41">
         <v>7</v>
@@ -4379,7 +4379,7 @@
         <v>6</v>
       </c>
       <c r="T41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U41">
         <v>7</v>
@@ -4400,7 +4400,7 @@
         <v>6</v>
       </c>
       <c r="AA41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB41">
         <v>7</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -4515,30 +4515,30 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>47.37</v>
+        <v>52.63</v>
       </c>
       <c r="G2">
         <v>10.53</v>
       </c>
       <c r="H2">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>52.63</v>
+        <v>47.37</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -4547,62 +4547,62 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>52.63</v>
+        <v>57.89</v>
       </c>
       <c r="G3">
-        <v>10.53</v>
+        <v>26.32</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="I3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>47.37</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>57.89</v>
+        <v>69.23</v>
       </c>
       <c r="G4">
-        <v>26.32</v>
+        <v>30.77</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>42.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -4611,19 +4611,19 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>69.23</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="G5">
-        <v>30.77</v>
+        <v>20.51</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -4643,19 +4643,19 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>79.48999999999999</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>20.51</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4666,34 +4666,34 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>89.73999999999999</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>10.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4735,7 +4735,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4773,16 +4773,16 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4793,53 +4793,53 @@
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920308</v>
+        <v>19330051920311</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920311</v>
+        <v>19330051920450</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>61</v>
@@ -4847,19 +4847,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920311</v>
+        <v>19330051920450</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>62</v>
@@ -4867,79 +4867,79 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920450</v>
+        <v>19330051920441</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920450</v>
+        <v>19330051920327</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920450</v>
+        <v>19330051920327</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920450</v>
+        <v>19330051920453</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -4947,19 +4947,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920441</v>
+        <v>19330051920453</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -4967,19 +4967,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920327</v>
+        <v>19330051920321</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>61</v>
@@ -4987,119 +4987,119 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920327</v>
+        <v>19330051920332</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920327</v>
+        <v>19330051920334</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920327</v>
+        <v>19330051920334</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920453</v>
+        <v>19330051920338</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920453</v>
+        <v>19330051920338</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920453</v>
+        <v>19330051920339</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
@@ -5107,39 +5107,39 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920453</v>
+        <v>19330051920339</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920321</v>
+        <v>19330051920340</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
         <v>61</v>
@@ -5147,19 +5147,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920321</v>
+        <v>19330051920340</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
         <v>62</v>
@@ -5167,99 +5167,99 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920332</v>
+        <v>19330051920445</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920332</v>
+        <v>19330051920445</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920334</v>
+        <v>19330051920342</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920334</v>
+        <v>19330051920342</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920334</v>
+        <v>19330051920347</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>61</v>
@@ -5267,139 +5267,139 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920338</v>
+        <v>19330051920347</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920338</v>
+        <v>19330051920350</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920338</v>
+        <v>19330051920350</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920339</v>
+        <v>19330051920352</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920339</v>
+        <v>19330051920352</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920339</v>
+        <v>19330051920354</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920339</v>
+        <v>19330051920354</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
         <v>62</v>
@@ -5407,19 +5407,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920340</v>
+        <v>19330051920353</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
         <v>62</v>
@@ -5427,501 +5427,21 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920340</v>
+        <v>19330051920353</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>19330051920340</v>
-      </c>
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>19330051920445</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>19330051920445</v>
-      </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>19330051920445</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>19330051920342</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>19330051920342</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>19330051920342</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>19330051920347</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>19330051920347</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>19330051920347</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>19330051920440</v>
-      </c>
-      <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>19330051920350</v>
-      </c>
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>19330051920350</v>
-      </c>
-      <c r="B48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>19330051920350</v>
-      </c>
-      <c r="B49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>19330051920352</v>
-      </c>
-      <c r="B50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" t="s">
-        <v>123</v>
-      </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>19330051920352</v>
-      </c>
-      <c r="B51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>19330051920352</v>
-      </c>
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>19330051920354</v>
-      </c>
-      <c r="B53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>19330051920354</v>
-      </c>
-      <c r="B54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>19330051920354</v>
-      </c>
-      <c r="B55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>19330051920353</v>
-      </c>
-      <c r="B56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>19330051920353</v>
-      </c>
-      <c r="B57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>19330051920353</v>
-      </c>
-      <c r="B58" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>19330051920355</v>
-      </c>
-      <c r="B59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" t="s">
-        <v>126</v>
-      </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5961,41 +5481,41 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920450</v>
+        <v>19330051920308</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920327</v>
+        <v>19330051920450</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920453</v>
+        <v>19330051920327</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -6004,78 +5524,78 @@
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920339</v>
+        <v>19330051920453</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920308</v>
+        <v>19330051920334</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920334</v>
+        <v>19330051920338</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920338</v>
+        <v>19330051920339</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6092,7 +5612,7 @@
         <v>117</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6109,7 +5629,7 @@
         <v>118</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6126,7 +5646,7 @@
         <v>119</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6143,7 +5663,7 @@
         <v>120</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6151,16 +5671,16 @@
         <v>19330051920350</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
         <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6168,16 +5688,16 @@
         <v>19330051920352</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
         <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6185,16 +5705,16 @@
         <v>19330051920354</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
         <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6202,16 +5722,16 @@
         <v>19330051920353</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
         <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6222,61 +5742,61 @@
         <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
         <v>107</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920321</v>
+        <v>19330051920441</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920332</v>
+        <v>19330051920321</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920441</v>
+        <v>19330051920332</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -6284,41 +5804,41 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920440</v>
+        <v>19330051920307</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920355</v>
+        <v>19330051920309</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920307</v>
+        <v>19330051920312</v>
       </c>
       <c r="B23" t="s">
         <v>127</v>
@@ -6335,13 +5855,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920309</v>
+        <v>19330051920316</v>
       </c>
       <c r="B24" t="s">
         <v>128</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -6352,13 +5872,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920312</v>
+        <v>19330051920318</v>
       </c>
       <c r="B25" t="s">
         <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
         <v>155</v>
@@ -6369,13 +5889,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920316</v>
+        <v>19330051920319</v>
       </c>
       <c r="B26" t="s">
         <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
         <v>156</v>
@@ -6386,7 +5906,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920318</v>
+        <v>19330051920323</v>
       </c>
       <c r="B27" t="s">
         <v>131</v>
@@ -6403,10 +5923,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920319</v>
+        <v>19330051920325</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>144</v>
@@ -6420,10 +5940,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920323</v>
+        <v>19330051920330</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
         <v>145</v>
@@ -6437,10 +5957,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920325</v>
+        <v>19330051920331</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
         <v>146</v>
@@ -6454,13 +5974,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920330</v>
+        <v>19330051920333</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
         <v>161</v>
@@ -6471,13 +5991,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920331</v>
+        <v>19330051920337</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
         <v>162</v>
@@ -6488,13 +6008,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920333</v>
+        <v>19330051920341</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
         <v>163</v>
@@ -6505,13 +6025,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920337</v>
+        <v>19330051920344</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
         <v>164</v>
@@ -6522,13 +6042,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920341</v>
+        <v>19330051920440</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>165</v>
@@ -6539,13 +6059,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920344</v>
+        <v>19330051920345</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
         <v>166</v>
@@ -6556,13 +6076,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920345</v>
+        <v>19330051920346</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
         <v>167</v>
@@ -6573,16 +6093,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920346</v>
+        <v>19330051920351</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -6590,16 +6110,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19330051920351</v>
+        <v>19330051920355</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -6610,10 +6130,10 @@
         <v>17330051920076</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
         <v>169</v>
@@ -6629,7 +6149,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6664,45 +6184,45 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920321</v>
+        <v>19330051920311</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920321</v>
+        <v>19330051920311</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -6710,45 +6230,45 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920441</v>
+        <v>19330051920332</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920440</v>
+        <v>19330051920332</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -6756,19 +6276,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920355</v>
+        <v>19330051920334</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -6779,24 +6299,231 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
+        <v>19330051920334</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920342</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920342</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920350</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920350</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920354</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920354</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920441</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920321</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
         <v>17330051920076</v>
       </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
         <v>169</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7">
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16">
         <v>5</v>
       </c>
     </row>

--- a/grupos/4APV - Estadisticos 20202.xlsx
+++ b/grupos/4APV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="170">
   <si>
     <t>Materia</t>
   </si>
@@ -206,21 +206,21 @@
     <t>Polanco Domínguez Rosa María</t>
   </si>
   <si>
+    <t>Sánchez Sánchez Miguel</t>
+  </si>
+  <si>
+    <t>Pesce Bautista Victor Manuel</t>
+  </si>
+  <si>
+    <t>Acevedo Rendón Ismael Arturo</t>
+  </si>
+  <si>
+    <t>Vargas Olvera Francisco Eduardo</t>
+  </si>
+  <si>
     <t>González Nuñez Veronica</t>
   </si>
   <si>
-    <t>Sánchez Sánchez Miguel</t>
-  </si>
-  <si>
-    <t>Pesce Bautista Victor Manuel</t>
-  </si>
-  <si>
-    <t>Acevedo Rendón Ismael Arturo</t>
-  </si>
-  <si>
-    <t>Vargas Olvera Francisco Eduardo</t>
-  </si>
-  <si>
     <t>Muñoz Rivadeneyra Salvador</t>
   </si>
   <si>
@@ -236,30 +236,63 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>APALE</t>
+  </si>
+  <si>
     <t>ARELLANO</t>
   </si>
   <si>
+    <t>ARRIETA</t>
+  </si>
+  <si>
     <t>BELLO</t>
   </si>
   <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
     <t>CONTRERAS</t>
   </si>
   <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>MANUEL</t>
+  </si>
+  <si>
     <t>MENDOZA</t>
   </si>
   <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
     <t>NAJERA</t>
   </si>
   <si>
@@ -275,12 +308,24 @@
     <t>PAZ</t>
   </si>
   <si>
+    <t>PATIÑO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
     <t>SANDOVAL</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
     <t>VILLA</t>
   </si>
   <si>
@@ -290,25 +335,52 @@
     <t>XOLIO</t>
   </si>
   <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
     <t>MORENO</t>
   </si>
   <si>
+    <t>NAVA</t>
+  </si>
+  <si>
     <t>ARENAS</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>AULIS</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO</t>
   </si>
   <si>
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
     <t>TIBURCIO</t>
   </si>
   <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
+    <t>TZOPITL</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
   </si>
   <si>
     <t>GOMEZ</t>
@@ -317,18 +389,21 @@
     <t>DOMINGUEZ</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>MONTERROSAS</t>
   </si>
   <si>
     <t>CAMPOS</t>
   </si>
   <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
     <t>BAEZ</t>
   </si>
   <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
@@ -338,18 +413,45 @@
     <t>RAMOS</t>
   </si>
   <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
     <t>CARLO HUMBERTO</t>
   </si>
   <si>
+    <t>JESUS ALBERTO</t>
+  </si>
+  <si>
     <t>JOSMAR ANTONIO</t>
   </si>
   <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
+    <t>GIOVANNI</t>
+  </si>
+  <si>
     <t>CRUZ JESUS</t>
   </si>
   <si>
+    <t>SAUL ESTEBAN</t>
+  </si>
+  <si>
+    <t>ALDO</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
     <t>ABRAHAM</t>
   </si>
   <si>
+    <t>ARELY</t>
+  </si>
+  <si>
     <t>EDGAR</t>
   </si>
   <si>
@@ -359,12 +461,24 @@
     <t>IGNACIO</t>
   </si>
   <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
     <t>JESUS MANUEL</t>
   </si>
   <si>
+    <t>RUBEN</t>
+  </si>
+  <si>
+    <t>LUZ ABRIL</t>
+  </si>
+  <si>
     <t>GABRIELA</t>
   </si>
   <si>
+    <t>VICTOR YAHIR</t>
+  </si>
+  <si>
     <t>LUIS ENRIQUE</t>
   </si>
   <si>
@@ -380,9 +494,24 @@
     <t>ANDREA YAMILET</t>
   </si>
   <si>
+    <t>CRISTOPHER ENRIQUE</t>
+  </si>
+  <si>
+    <t>CARLOS FERNANDO</t>
+  </si>
+  <si>
     <t>JESUS ARMANDO</t>
   </si>
   <si>
+    <t>CIELO IVETTE</t>
+  </si>
+  <si>
+    <t>GWINETH</t>
+  </si>
+  <si>
+    <t>YOSEF OMAR</t>
+  </si>
+  <si>
     <t>ABIGAIL</t>
   </si>
   <si>
@@ -393,135 +522,6 @@
   </si>
   <si>
     <t>HERSON ELIAS</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>ARRIETA</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MANUEL</t>
-  </si>
-  <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>PATIÑO</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>NAVA</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>AULIS</t>
-  </si>
-  <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>GALLARDO</t>
-  </si>
-  <si>
-    <t>TZOPITL</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>JESUS ALBERTO</t>
-  </si>
-  <si>
-    <t>KEVIN HONAM</t>
-  </si>
-  <si>
-    <t>GIOVANNI</t>
-  </si>
-  <si>
-    <t>SAUL ESTEBAN</t>
-  </si>
-  <si>
-    <t>ALDO</t>
-  </si>
-  <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>RUBEN</t>
-  </si>
-  <si>
-    <t>LUZ ABRIL</t>
-  </si>
-  <si>
-    <t>VICTOR YAHIR</t>
-  </si>
-  <si>
-    <t>CRISTOPHER ENRIQUE</t>
-  </si>
-  <si>
-    <t>CARLOS FERNANDO</t>
-  </si>
-  <si>
-    <t>CIELO IVETTE</t>
-  </si>
-  <si>
-    <t>GWINETH</t>
-  </si>
-  <si>
-    <t>YOSEF OMAR</t>
   </si>
   <si>
     <t>JOEL</t>
@@ -1092,7 +1092,7 @@
         <v>7</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W4">
         <v>6</v>
@@ -1113,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="AC4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1136,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -1157,10 +1157,10 @@
         <v>6</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P5">
         <v>7</v>
@@ -1178,10 +1178,10 @@
         <v>6</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>6</v>
@@ -1199,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC5">
         <v>6</v>
@@ -1335,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -1356,7 +1356,7 @@
         <v>6</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V7">
         <v>9</v>
@@ -1377,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="AB7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC7">
         <v>7</v>
@@ -1448,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W8">
         <v>8</v>
@@ -1469,7 +1469,7 @@
         <v>7</v>
       </c>
       <c r="AC8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1537,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W9">
         <v>8</v>
@@ -1581,10 +1581,10 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -1602,10 +1602,10 @@
         <v>6</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <v>7</v>
@@ -1623,10 +1623,10 @@
         <v>6</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W10">
         <v>6</v>
@@ -1644,10 +1644,10 @@
         <v>6</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1848,7 +1848,7 @@
         <v>6</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -1869,7 +1869,7 @@
         <v>6</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O13">
         <v>8</v>
@@ -1890,10 +1890,10 @@
         <v>8</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W13">
         <v>7</v>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC13">
         <v>7</v>
@@ -1979,10 +1979,10 @@
         <v>6</v>
       </c>
       <c r="U14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W14">
         <v>7</v>
@@ -2000,7 +2000,7 @@
         <v>7</v>
       </c>
       <c r="AB14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC14">
         <v>8</v>
@@ -2047,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="N15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O15">
         <v>6</v>
@@ -2068,10 +2068,10 @@
         <v>10</v>
       </c>
       <c r="U15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W15">
         <v>10</v>
@@ -2204,10 +2204,10 @@
         <v>6</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>5</v>
@@ -2225,10 +2225,10 @@
         <v>6</v>
       </c>
       <c r="N17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P17">
         <v>7</v>
@@ -2246,10 +2246,10 @@
         <v>6</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W17">
         <v>6</v>
@@ -2267,10 +2267,10 @@
         <v>6</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2293,10 +2293,10 @@
         <v>6</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -2314,10 +2314,10 @@
         <v>6</v>
       </c>
       <c r="N18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P18">
         <v>7</v>
@@ -2335,10 +2335,10 @@
         <v>6</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W18">
         <v>6</v>
@@ -2356,10 +2356,10 @@
         <v>6</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2427,7 +2427,7 @@
         <v>8</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W19">
         <v>8</v>
@@ -2445,10 +2445,10 @@
         <v>7</v>
       </c>
       <c r="AB19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC19">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2584,7 +2584,7 @@
         <v>7</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P21">
         <v>7</v>
@@ -2605,7 +2605,7 @@
         <v>7</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W21">
         <v>6</v>
@@ -2626,7 +2626,7 @@
         <v>7</v>
       </c>
       <c r="AC21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2738,7 +2738,7 @@
         <v>6</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>6</v>
@@ -2759,10 +2759,10 @@
         <v>6</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P23">
         <v>7</v>
@@ -2780,10 +2780,10 @@
         <v>6</v>
       </c>
       <c r="U23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W23">
         <v>7</v>
@@ -2801,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC23">
         <v>6</v>
@@ -2872,7 +2872,7 @@
         <v>6</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W24">
         <v>9</v>
@@ -2937,10 +2937,10 @@
         <v>6</v>
       </c>
       <c r="N25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P25">
         <v>7</v>
@@ -2958,10 +2958,10 @@
         <v>6</v>
       </c>
       <c r="U25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W25">
         <v>6</v>
@@ -2979,10 +2979,10 @@
         <v>6</v>
       </c>
       <c r="AB25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC25">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3005,10 +3005,10 @@
         <v>6</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I26">
         <v>5</v>
@@ -3026,10 +3026,10 @@
         <v>6</v>
       </c>
       <c r="N26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P26">
         <v>7</v>
@@ -3047,10 +3047,10 @@
         <v>6</v>
       </c>
       <c r="U26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W26">
         <v>6</v>
@@ -3068,10 +3068,10 @@
         <v>6</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3094,10 +3094,10 @@
         <v>6</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I27">
         <v>5</v>
@@ -3115,10 +3115,10 @@
         <v>7</v>
       </c>
       <c r="N27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P27">
         <v>7</v>
@@ -3136,10 +3136,10 @@
         <v>7</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W27">
         <v>6</v>
@@ -3157,10 +3157,10 @@
         <v>7</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3183,7 +3183,7 @@
         <v>6</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>6</v>
@@ -3204,10 +3204,10 @@
         <v>7</v>
       </c>
       <c r="N28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P28">
         <v>7</v>
@@ -3225,10 +3225,10 @@
         <v>7</v>
       </c>
       <c r="U28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W28">
         <v>6</v>
@@ -3246,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC28">
         <v>6</v>
@@ -3361,7 +3361,7 @@
         <v>6</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <v>7</v>
@@ -3382,10 +3382,10 @@
         <v>6</v>
       </c>
       <c r="N30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P30">
         <v>7</v>
@@ -3403,10 +3403,10 @@
         <v>6</v>
       </c>
       <c r="U30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W30">
         <v>6</v>
@@ -3424,10 +3424,10 @@
         <v>6</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3495,7 +3495,7 @@
         <v>6</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W31">
         <v>10</v>
@@ -3670,10 +3670,10 @@
         <v>10</v>
       </c>
       <c r="U33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W33">
         <v>10</v>
@@ -3691,7 +3691,7 @@
         <v>10</v>
       </c>
       <c r="AB33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC33">
         <v>9</v>
@@ -3806,10 +3806,10 @@
         <v>6</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I35">
         <v>5</v>
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="N35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P35">
         <v>7</v>
@@ -3848,10 +3848,10 @@
         <v>6</v>
       </c>
       <c r="U35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W35">
         <v>6</v>
@@ -3869,10 +3869,10 @@
         <v>6</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3895,7 +3895,7 @@
         <v>6</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H36">
         <v>6</v>
@@ -3916,10 +3916,10 @@
         <v>7</v>
       </c>
       <c r="N36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P36">
         <v>7</v>
@@ -3937,10 +3937,10 @@
         <v>6</v>
       </c>
       <c r="U36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W36">
         <v>6</v>
@@ -3958,7 +3958,7 @@
         <v>6</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC36">
         <v>6</v>
@@ -4029,7 +4029,7 @@
         <v>6</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W37">
         <v>10</v>
@@ -4050,7 +4050,7 @@
         <v>6</v>
       </c>
       <c r="AC37">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4073,7 +4073,7 @@
         <v>6</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>6</v>
@@ -4094,10 +4094,10 @@
         <v>6</v>
       </c>
       <c r="N38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P38">
         <v>7</v>
@@ -4115,10 +4115,10 @@
         <v>6</v>
       </c>
       <c r="U38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W38">
         <v>6</v>
@@ -4136,7 +4136,7 @@
         <v>6</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC38">
         <v>6</v>
@@ -4183,10 +4183,10 @@
         <v>7</v>
       </c>
       <c r="N39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P39">
         <v>7</v>
@@ -4204,10 +4204,10 @@
         <v>7</v>
       </c>
       <c r="U39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W39">
         <v>6</v>
@@ -4225,7 +4225,7 @@
         <v>7</v>
       </c>
       <c r="AB39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC39">
         <v>6</v>
@@ -4251,7 +4251,7 @@
         <v>6</v>
       </c>
       <c r="G40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>7</v>
@@ -4272,10 +4272,10 @@
         <v>6</v>
       </c>
       <c r="N40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P40">
         <v>7</v>
@@ -4293,10 +4293,10 @@
         <v>6</v>
       </c>
       <c r="U40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W40">
         <v>6</v>
@@ -4314,10 +4314,10 @@
         <v>6</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC40">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4515,62 +4515,62 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>52.63</v>
+        <v>57.89</v>
       </c>
       <c r="G2">
-        <v>10.53</v>
+        <v>42.11</v>
       </c>
       <c r="H2">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>47.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>57.89</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>26.32</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>42.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -4579,19 +4579,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>69.23</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>30.77</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -4611,19 +4611,19 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>79.48999999999999</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>20.51</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4634,16 +4634,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4735,7 +4735,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4763,686 +4763,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>19330051920308</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>19330051920308</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>19330051920311</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>19330051920450</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>19330051920450</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>19330051920441</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>19330051920327</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>19330051920327</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>19330051920453</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>19330051920453</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>19330051920321</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>19330051920332</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>19330051920334</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>19330051920334</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>19330051920338</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>19330051920338</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>19330051920339</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>19330051920339</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19330051920340</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>19330051920340</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>19330051920445</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>19330051920445</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>19330051920342</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>19330051920342</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>19330051920347</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>19330051920347</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>19330051920350</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>19330051920350</v>
-      </c>
-      <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>19330051920352</v>
-      </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>19330051920352</v>
-      </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>19330051920354</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>19330051920354</v>
-      </c>
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>19330051920353</v>
-      </c>
-      <c r="B34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>19330051920353</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5481,336 +4801,336 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920308</v>
+        <v>19330051920307</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920450</v>
+        <v>19330051920308</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920327</v>
+        <v>19330051920309</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920453</v>
+        <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920334</v>
+        <v>19330051920312</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920338</v>
+        <v>19330051920316</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920339</v>
+        <v>19330051920450</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920340</v>
+        <v>19330051920318</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920445</v>
+        <v>19330051920319</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920342</v>
+        <v>19330051920323</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920347</v>
+        <v>19330051920441</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920350</v>
+        <v>19330051920325</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920352</v>
+        <v>19330051920327</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920354</v>
+        <v>19330051920453</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920353</v>
+        <v>19330051920321</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920311</v>
+        <v>19330051920330</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920441</v>
+        <v>19330051920332</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920321</v>
+        <v>19330051920331</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920332</v>
+        <v>19330051920333</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920307</v>
+        <v>19330051920334</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
         <v>151</v>
@@ -5821,13 +5141,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920309</v>
+        <v>19330051920337</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
         <v>152</v>
@@ -5838,13 +5158,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920312</v>
+        <v>19330051920338</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
         <v>153</v>
@@ -5855,13 +5175,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920316</v>
+        <v>19330051920339</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5872,13 +5192,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920318</v>
+        <v>19330051920340</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
         <v>155</v>
@@ -5889,13 +5209,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920319</v>
+        <v>19330051920445</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
         <v>156</v>
@@ -5906,13 +5226,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920323</v>
+        <v>19330051920342</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
         <v>157</v>
@@ -5923,13 +5243,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920325</v>
+        <v>19330051920341</v>
       </c>
       <c r="B28" t="s">
         <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
         <v>158</v>
@@ -5940,13 +5260,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920330</v>
+        <v>19330051920344</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
         <v>159</v>
@@ -5957,13 +5277,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920331</v>
+        <v>19330051920347</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
         <v>160</v>
@@ -5974,13 +5294,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920333</v>
+        <v>19330051920440</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
         <v>161</v>
@@ -5991,13 +5311,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920337</v>
+        <v>19330051920345</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>162</v>
@@ -6008,13 +5328,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920341</v>
+        <v>19330051920346</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
         <v>163</v>
@@ -6025,13 +5345,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920344</v>
+        <v>19330051920350</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
         <v>164</v>
@@ -6042,16 +5362,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920440</v>
+        <v>19330051920351</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -6059,16 +5379,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920345</v>
+        <v>19330051920352</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -6076,16 +5396,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920346</v>
+        <v>19330051920354</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -6093,16 +5413,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920351</v>
+        <v>19330051920353</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -6113,10 +5433,10 @@
         <v>19330051920355</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
         <v>168</v>
@@ -6130,10 +5450,10 @@
         <v>17330051920076</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
         <v>169</v>
@@ -6149,7 +5469,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6179,27 +5499,27 @@
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920311</v>
+        <v>19330051920308</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -6210,13 +5530,13 @@
         <v>19330051920311</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -6225,27 +5545,27 @@
         <v>61</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920332</v>
+        <v>19330051920450</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -6253,39 +5573,39 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920332</v>
+        <v>19330051920327</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920334</v>
+        <v>19330051920453</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -6294,44 +5614,44 @@
         <v>61</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920334</v>
+        <v>19330051920321</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920342</v>
+        <v>19330051920330</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -6340,44 +5660,44 @@
         <v>61</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920342</v>
+        <v>19330051920334</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920350</v>
+        <v>19330051920339</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -6386,44 +5706,44 @@
         <v>61</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920350</v>
+        <v>19330051920340</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920354</v>
+        <v>19330051920445</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -6432,44 +5752,44 @@
         <v>61</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920354</v>
+        <v>19330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920441</v>
+        <v>19330051920350</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -6478,21 +5798,21 @@
         <v>61</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920321</v>
+        <v>19330051920352</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -6501,29 +5821,52 @@
         <v>61</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>17330051920076</v>
+        <v>19330051920354</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920353</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17">
         <v>5</v>
       </c>
     </row>
